--- a/help/51_COVID_19_svod.xlsx
+++ b/help/51_COVID_19_svod.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SharinM\Desktop\Загрузки_временные\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Загрузки_временные\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -732,7 +732,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -875,21 +875,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1288,7 +1273,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1320,79 +1305,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1401,72 +1377,75 @@
     <xf numFmtId="2" fontId="9" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1479,34 +1458,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1516,6 +1489,41 @@
     <cellStyle name="Финансовый" xfId="2" builtinId="3"/>
   </cellStyles>
   <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border outline="0">
         <right style="thin">
@@ -1556,41 +1564,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1605,7 +1578,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:B111" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:B111" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
   <autoFilter ref="A1:B111"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Организация"/>
@@ -1883,8 +1856,8 @@
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1:L115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A114" sqref="A114:XFD114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1901,113 +1874,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="62" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="62" t="s">
         <v>138</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="66" t="s">
         <v>139</v>
       </c>
-      <c r="G1" s="66" t="s">
+      <c r="G1" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="H1" s="72" t="s">
+      <c r="H1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="73"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="66" t="s">
+      <c r="I1" s="69"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="62" t="s">
         <v>141</v>
       </c>
-      <c r="L1" s="75" t="s">
+      <c r="L1" s="71" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="67"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="37" t="s">
+      <c r="A2" s="63"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="I2" s="38" t="s">
+      <c r="I2" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="J2" s="37" t="s">
+      <c r="J2" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="K2" s="67"/>
-      <c r="L2" s="76"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="72"/>
     </row>
     <row r="3" spans="1:12" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40">
+      <c r="A3" s="37">
         <v>1</v>
       </c>
-      <c r="B3" s="40">
+      <c r="B3" s="37">
         <v>2</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3" s="37">
         <v>3</v>
       </c>
-      <c r="D3" s="40">
+      <c r="D3" s="37">
         <v>4</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="37">
         <v>5</v>
       </c>
-      <c r="F3" s="40">
+      <c r="F3" s="37">
         <v>6</v>
       </c>
-      <c r="G3" s="40">
+      <c r="G3" s="37">
         <v>7</v>
       </c>
-      <c r="H3" s="40">
+      <c r="H3" s="37">
         <v>8</v>
       </c>
-      <c r="I3" s="40">
+      <c r="I3" s="37">
         <v>9</v>
       </c>
-      <c r="J3" s="40">
+      <c r="J3" s="37">
         <v>10</v>
       </c>
-      <c r="K3" s="40">
+      <c r="K3" s="37">
         <v>11</v>
       </c>
-      <c r="L3" s="40">
+      <c r="L3" s="37">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="11"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="62"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="59"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="12"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -2018,10 +1991,10 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="63"/>
+      <c r="L5" s="60"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="12"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -2032,10 +2005,10 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="63"/>
+      <c r="L6" s="60"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="12"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -2046,10 +2019,10 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="63"/>
+      <c r="L7" s="60"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="12"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -2060,10 +2033,10 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="63"/>
+      <c r="L8" s="60"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="12"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -2074,10 +2047,10 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="63"/>
+      <c r="L9" s="60"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="12"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -2088,10 +2061,10 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="63"/>
+      <c r="L10" s="60"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="12"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -2102,10 +2075,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="63"/>
+      <c r="L11" s="60"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="12"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -2116,10 +2089,10 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="63"/>
+      <c r="L12" s="60"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="12"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -2130,10 +2103,10 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="63"/>
+      <c r="L13" s="60"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="12"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -2144,10 +2117,10 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="63"/>
+      <c r="L14" s="60"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="12"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -2158,10 +2131,10 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="63"/>
+      <c r="L15" s="60"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="12"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -2172,10 +2145,10 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="63"/>
+      <c r="L16" s="60"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="12"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -2186,10 +2159,10 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="63"/>
+      <c r="L17" s="60"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="12"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -2200,10 +2173,10 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="63"/>
+      <c r="L18" s="60"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="12"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -2214,10 +2187,10 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="63"/>
+      <c r="L19" s="60"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="12"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -2228,10 +2201,10 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="63"/>
+      <c r="L20" s="60"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="12"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -2242,10 +2215,10 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="63"/>
+      <c r="L21" s="60"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="12"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -2256,10 +2229,10 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="63"/>
+      <c r="L22" s="60"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
+      <c r="A23" s="15"/>
       <c r="B23" s="12"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -2270,10 +2243,10 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="63"/>
+      <c r="L23" s="60"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
+      <c r="A24" s="15"/>
       <c r="B24" s="12"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -2284,10 +2257,10 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="63"/>
+      <c r="L24" s="60"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="12"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -2298,10 +2271,10 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="63"/>
+      <c r="L25" s="60"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
+      <c r="A26" s="15"/>
       <c r="B26" s="12"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -2312,10 +2285,10 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
-      <c r="L26" s="63"/>
+      <c r="L26" s="60"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="12"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -2326,10 +2299,10 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
-      <c r="L27" s="63"/>
+      <c r="L27" s="60"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
+      <c r="A28" s="15"/>
       <c r="B28" s="12"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -2340,10 +2313,10 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="63"/>
+      <c r="L28" s="60"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
+      <c r="A29" s="15"/>
       <c r="B29" s="12"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -2354,10 +2327,10 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
-      <c r="L29" s="63"/>
+      <c r="L29" s="60"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
+      <c r="A30" s="15"/>
       <c r="B30" s="12"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -2368,10 +2341,10 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
-      <c r="L30" s="63"/>
+      <c r="L30" s="60"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
+      <c r="A31" s="15"/>
       <c r="B31" s="12"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -2382,10 +2355,10 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
-      <c r="L31" s="63"/>
+      <c r="L31" s="60"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="12"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -2396,10 +2369,10 @@
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
-      <c r="L32" s="63"/>
+      <c r="L32" s="60"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
+      <c r="A33" s="15"/>
       <c r="B33" s="12"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -2410,10 +2383,10 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
-      <c r="L33" s="63"/>
+      <c r="L33" s="60"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
+      <c r="A34" s="15"/>
       <c r="B34" s="12"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -2424,10 +2397,10 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
-      <c r="L34" s="63"/>
+      <c r="L34" s="60"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
+      <c r="A35" s="15"/>
       <c r="B35" s="12"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -2438,10 +2411,10 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
-      <c r="L35" s="63"/>
+      <c r="L35" s="60"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
+      <c r="A36" s="15"/>
       <c r="B36" s="12"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -2452,10 +2425,10 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
-      <c r="L36" s="63"/>
+      <c r="L36" s="60"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
+      <c r="A37" s="15"/>
       <c r="B37" s="12"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -2466,10 +2439,10 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
-      <c r="L37" s="63"/>
+      <c r="L37" s="60"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
+      <c r="A38" s="15"/>
       <c r="B38" s="12"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2480,10 +2453,10 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
-      <c r="L38" s="63"/>
+      <c r="L38" s="60"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="12"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -2494,10 +2467,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-      <c r="L39" s="63"/>
+      <c r="L39" s="60"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
+      <c r="A40" s="15"/>
       <c r="B40" s="12"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -2508,10 +2481,10 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-      <c r="L40" s="63"/>
+      <c r="L40" s="60"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
+      <c r="A41" s="15"/>
       <c r="B41" s="12"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -2522,10 +2495,10 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
-      <c r="L41" s="63"/>
+      <c r="L41" s="60"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
+      <c r="A42" s="15"/>
       <c r="B42" s="12"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -2536,10 +2509,10 @@
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
-      <c r="L42" s="63"/>
+      <c r="L42" s="60"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
+      <c r="A43" s="15"/>
       <c r="B43" s="12"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -2550,10 +2523,10 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
-      <c r="L43" s="63"/>
+      <c r="L43" s="60"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
+      <c r="A44" s="15"/>
       <c r="B44" s="12"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -2564,10 +2537,10 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
-      <c r="L44" s="63"/>
+      <c r="L44" s="60"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
+      <c r="A45" s="15"/>
       <c r="B45" s="12"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -2578,10 +2551,10 @@
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
-      <c r="L45" s="63"/>
+      <c r="L45" s="60"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
+      <c r="A46" s="15"/>
       <c r="B46" s="12"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -2592,10 +2565,10 @@
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
-      <c r="L46" s="63"/>
+      <c r="L46" s="60"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="17"/>
+      <c r="A47" s="15"/>
       <c r="B47" s="12"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -2606,10 +2579,10 @@
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
-      <c r="L47" s="63"/>
+      <c r="L47" s="60"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="17"/>
+      <c r="A48" s="15"/>
       <c r="B48" s="12"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -2620,10 +2593,10 @@
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
-      <c r="L48" s="63"/>
+      <c r="L48" s="60"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="17"/>
+      <c r="A49" s="15"/>
       <c r="B49" s="12"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -2634,10 +2607,10 @@
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
-      <c r="L49" s="63"/>
+      <c r="L49" s="60"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="17"/>
+      <c r="A50" s="15"/>
       <c r="B50" s="12"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -2648,10 +2621,10 @@
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
-      <c r="L50" s="63"/>
+      <c r="L50" s="60"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="17"/>
+      <c r="A51" s="15"/>
       <c r="B51" s="12"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -2662,10 +2635,10 @@
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
-      <c r="L51" s="63"/>
+      <c r="L51" s="60"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="17"/>
+      <c r="A52" s="15"/>
       <c r="B52" s="12"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -2676,10 +2649,10 @@
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
-      <c r="L52" s="63"/>
+      <c r="L52" s="60"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="17"/>
+      <c r="A53" s="15"/>
       <c r="B53" s="12"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -2690,10 +2663,10 @@
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
-      <c r="L53" s="63"/>
+      <c r="L53" s="60"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="17"/>
+      <c r="A54" s="15"/>
       <c r="B54" s="12"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -2704,10 +2677,10 @@
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
-      <c r="L54" s="63"/>
+      <c r="L54" s="60"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="17"/>
+      <c r="A55" s="15"/>
       <c r="B55" s="12"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -2718,10 +2691,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-      <c r="L55" s="63"/>
+      <c r="L55" s="60"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="17"/>
+      <c r="A56" s="15"/>
       <c r="B56" s="12"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -2732,10 +2705,10 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-      <c r="L56" s="63"/>
+      <c r="L56" s="60"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="17"/>
+      <c r="A57" s="15"/>
       <c r="B57" s="12"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -2746,10 +2719,10 @@
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
-      <c r="L57" s="63"/>
+      <c r="L57" s="60"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="17"/>
+      <c r="A58" s="15"/>
       <c r="B58" s="12"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -2760,10 +2733,10 @@
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
-      <c r="L58" s="63"/>
+      <c r="L58" s="60"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="17"/>
+      <c r="A59" s="15"/>
       <c r="B59" s="12"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -2774,10 +2747,10 @@
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
-      <c r="L59" s="63"/>
+      <c r="L59" s="60"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="17"/>
+      <c r="A60" s="15"/>
       <c r="B60" s="12"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -2788,10 +2761,10 @@
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
-      <c r="L60" s="63"/>
+      <c r="L60" s="60"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="17"/>
+      <c r="A61" s="15"/>
       <c r="B61" s="12"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -2802,10 +2775,10 @@
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
-      <c r="L61" s="63"/>
+      <c r="L61" s="60"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="17"/>
+      <c r="A62" s="15"/>
       <c r="B62" s="12"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -2816,10 +2789,10 @@
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
-      <c r="L62" s="63"/>
+      <c r="L62" s="60"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="17"/>
+      <c r="A63" s="15"/>
       <c r="B63" s="12"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -2830,10 +2803,10 @@
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
-      <c r="L63" s="63"/>
+      <c r="L63" s="60"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="17"/>
+      <c r="A64" s="15"/>
       <c r="B64" s="12"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -2844,10 +2817,10 @@
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
-      <c r="L64" s="63"/>
+      <c r="L64" s="60"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="17"/>
+      <c r="A65" s="15"/>
       <c r="B65" s="12"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -2858,10 +2831,10 @@
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
-      <c r="L65" s="63"/>
+      <c r="L65" s="60"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="17"/>
+      <c r="A66" s="15"/>
       <c r="B66" s="12"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -2872,10 +2845,10 @@
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
-      <c r="L66" s="63"/>
+      <c r="L66" s="60"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="17"/>
+      <c r="A67" s="15"/>
       <c r="B67" s="12"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -2886,10 +2859,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-      <c r="L67" s="63"/>
+      <c r="L67" s="60"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="17"/>
+      <c r="A68" s="15"/>
       <c r="B68" s="12"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -2900,10 +2873,10 @@
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
-      <c r="L68" s="63"/>
+      <c r="L68" s="60"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="17"/>
+      <c r="A69" s="15"/>
       <c r="B69" s="12"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -2914,10 +2887,10 @@
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
-      <c r="L69" s="63"/>
+      <c r="L69" s="60"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="17"/>
+      <c r="A70" s="15"/>
       <c r="B70" s="12"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -2928,10 +2901,10 @@
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
-      <c r="L70" s="63"/>
+      <c r="L70" s="60"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="17"/>
+      <c r="A71" s="15"/>
       <c r="B71" s="12"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -2942,10 +2915,10 @@
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
-      <c r="L71" s="63"/>
+      <c r="L71" s="60"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="17"/>
+      <c r="A72" s="15"/>
       <c r="B72" s="12"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -2956,10 +2929,10 @@
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
-      <c r="L72" s="63"/>
+      <c r="L72" s="60"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="17"/>
+      <c r="A73" s="15"/>
       <c r="B73" s="12"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -2970,10 +2943,10 @@
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
-      <c r="L73" s="63"/>
+      <c r="L73" s="60"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="17"/>
+      <c r="A74" s="15"/>
       <c r="B74" s="12"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -2984,10 +2957,10 @@
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
-      <c r="L74" s="63"/>
+      <c r="L74" s="60"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="17"/>
+      <c r="A75" s="15"/>
       <c r="B75" s="12"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -2998,10 +2971,10 @@
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
-      <c r="L75" s="63"/>
+      <c r="L75" s="60"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="17"/>
+      <c r="A76" s="15"/>
       <c r="B76" s="12"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -3012,10 +2985,10 @@
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
-      <c r="L76" s="63"/>
+      <c r="L76" s="60"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="17"/>
+      <c r="A77" s="15"/>
       <c r="B77" s="12"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -3026,10 +2999,10 @@
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
-      <c r="L77" s="63"/>
+      <c r="L77" s="60"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="17"/>
+      <c r="A78" s="15"/>
       <c r="B78" s="12"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -3040,10 +3013,10 @@
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
-      <c r="L78" s="63"/>
+      <c r="L78" s="60"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="17"/>
+      <c r="A79" s="15"/>
       <c r="B79" s="12"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -3054,10 +3027,10 @@
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
-      <c r="L79" s="63"/>
+      <c r="L79" s="60"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="17"/>
+      <c r="A80" s="15"/>
       <c r="B80" s="12"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -3068,10 +3041,10 @@
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
-      <c r="L80" s="63"/>
+      <c r="L80" s="60"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="17"/>
+      <c r="A81" s="15"/>
       <c r="B81" s="12"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
@@ -3082,10 +3055,10 @@
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
-      <c r="L81" s="63"/>
+      <c r="L81" s="60"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="17"/>
+      <c r="A82" s="15"/>
       <c r="B82" s="12"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
@@ -3096,10 +3069,10 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-      <c r="L82" s="63"/>
+      <c r="L82" s="60"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="17"/>
+      <c r="A83" s="15"/>
       <c r="B83" s="12"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
@@ -3110,10 +3083,10 @@
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
-      <c r="L83" s="63"/>
+      <c r="L83" s="60"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="17"/>
+      <c r="A84" s="15"/>
       <c r="B84" s="12"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
@@ -3124,10 +3097,10 @@
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
-      <c r="L84" s="63"/>
+      <c r="L84" s="60"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="17"/>
+      <c r="A85" s="15"/>
       <c r="B85" s="12"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
@@ -3138,10 +3111,10 @@
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
-      <c r="L85" s="63"/>
+      <c r="L85" s="60"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="17"/>
+      <c r="A86" s="15"/>
       <c r="B86" s="12"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
@@ -3152,10 +3125,10 @@
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
-      <c r="L86" s="63"/>
+      <c r="L86" s="60"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="17"/>
+      <c r="A87" s="15"/>
       <c r="B87" s="12"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -3166,10 +3139,10 @@
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
-      <c r="L87" s="63"/>
+      <c r="L87" s="60"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="17"/>
+      <c r="A88" s="15"/>
       <c r="B88" s="12"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
@@ -3180,10 +3153,10 @@
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
-      <c r="L88" s="63"/>
+      <c r="L88" s="60"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="17"/>
+      <c r="A89" s="15"/>
       <c r="B89" s="12"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
@@ -3194,10 +3167,10 @@
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
-      <c r="L89" s="63"/>
+      <c r="L89" s="60"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="17"/>
+      <c r="A90" s="15"/>
       <c r="B90" s="12"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
@@ -3208,10 +3181,10 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-      <c r="L90" s="63"/>
+      <c r="L90" s="60"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="17"/>
+      <c r="A91" s="15"/>
       <c r="B91" s="12"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
@@ -3222,10 +3195,10 @@
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
-      <c r="L91" s="63"/>
+      <c r="L91" s="60"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="17"/>
+      <c r="A92" s="15"/>
       <c r="B92" s="12"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
@@ -3236,10 +3209,10 @@
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
       <c r="K92" s="3"/>
-      <c r="L92" s="63"/>
+      <c r="L92" s="60"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="17"/>
+      <c r="A93" s="15"/>
       <c r="B93" s="12"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
@@ -3250,10 +3223,10 @@
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
       <c r="K93" s="3"/>
-      <c r="L93" s="63"/>
+      <c r="L93" s="60"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="17"/>
+      <c r="A94" s="15"/>
       <c r="B94" s="12"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
@@ -3264,10 +3237,10 @@
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
-      <c r="L94" s="63"/>
+      <c r="L94" s="60"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="17"/>
+      <c r="A95" s="15"/>
       <c r="B95" s="12"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
@@ -3278,10 +3251,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-      <c r="L95" s="63"/>
+      <c r="L95" s="60"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="17"/>
+      <c r="A96" s="15"/>
       <c r="B96" s="12"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -3292,10 +3265,10 @@
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
       <c r="K96" s="3"/>
-      <c r="L96" s="63"/>
+      <c r="L96" s="60"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="17"/>
+      <c r="A97" s="15"/>
       <c r="B97" s="12"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
@@ -3306,10 +3279,10 @@
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
       <c r="K97" s="3"/>
-      <c r="L97" s="63"/>
+      <c r="L97" s="60"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="17"/>
+      <c r="A98" s="15"/>
       <c r="B98" s="12"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
@@ -3320,10 +3293,10 @@
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
       <c r="K98" s="3"/>
-      <c r="L98" s="63"/>
+      <c r="L98" s="60"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="17"/>
+      <c r="A99" s="15"/>
       <c r="B99" s="12"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
@@ -3334,10 +3307,10 @@
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
       <c r="K99" s="3"/>
-      <c r="L99" s="63"/>
+      <c r="L99" s="60"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="17"/>
+      <c r="A100" s="15"/>
       <c r="B100" s="12"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
@@ -3348,10 +3321,10 @@
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
-      <c r="L100" s="63"/>
+      <c r="L100" s="60"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="17"/>
+      <c r="A101" s="15"/>
       <c r="B101" s="12"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
@@ -3362,10 +3335,10 @@
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
       <c r="K101" s="3"/>
-      <c r="L101" s="63"/>
+      <c r="L101" s="60"/>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="17"/>
+      <c r="A102" s="15"/>
       <c r="B102" s="12"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
@@ -3376,10 +3349,10 @@
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
       <c r="K102" s="3"/>
-      <c r="L102" s="63"/>
+      <c r="L102" s="60"/>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="17"/>
+      <c r="A103" s="15"/>
       <c r="B103" s="12"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
@@ -3390,10 +3363,10 @@
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
       <c r="K103" s="3"/>
-      <c r="L103" s="63"/>
+      <c r="L103" s="60"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="17"/>
+      <c r="A104" s="15"/>
       <c r="B104" s="12"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
@@ -3404,10 +3377,10 @@
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
       <c r="K104" s="3"/>
-      <c r="L104" s="63"/>
+      <c r="L104" s="60"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="17"/>
+      <c r="A105" s="15"/>
       <c r="B105" s="12"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
@@ -3418,10 +3391,10 @@
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
       <c r="K105" s="3"/>
-      <c r="L105" s="63"/>
+      <c r="L105" s="60"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="17"/>
+      <c r="A106" s="15"/>
       <c r="B106" s="12"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
@@ -3432,10 +3405,10 @@
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
       <c r="K106" s="3"/>
-      <c r="L106" s="63"/>
+      <c r="L106" s="60"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="17"/>
+      <c r="A107" s="15"/>
       <c r="B107" s="12"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
@@ -3446,10 +3419,10 @@
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
       <c r="K107" s="3"/>
-      <c r="L107" s="63"/>
+      <c r="L107" s="60"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="17"/>
+      <c r="A108" s="15"/>
       <c r="B108" s="12"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
@@ -3460,10 +3433,10 @@
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
-      <c r="L108" s="63"/>
+      <c r="L108" s="60"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="17"/>
+      <c r="A109" s="15"/>
       <c r="B109" s="12"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -3474,10 +3447,10 @@
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
       <c r="K109" s="3"/>
-      <c r="L109" s="63"/>
+      <c r="L109" s="60"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="17"/>
+      <c r="A110" s="15"/>
       <c r="B110" s="12"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
@@ -3488,10 +3461,10 @@
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
       <c r="K110" s="3"/>
-      <c r="L110" s="63"/>
+      <c r="L110" s="60"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="17"/>
+      <c r="A111" s="15"/>
       <c r="B111" s="12"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
@@ -3502,10 +3475,10 @@
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
       <c r="K111" s="3"/>
-      <c r="L111" s="63"/>
+      <c r="L111" s="60"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="17"/>
+      <c r="A112" s="15"/>
       <c r="B112" s="12"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
@@ -3516,10 +3489,10 @@
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
       <c r="K112" s="3"/>
-      <c r="L112" s="63"/>
+      <c r="L112" s="60"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="17"/>
+      <c r="A113" s="15"/>
       <c r="B113" s="12"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
@@ -3530,21 +3503,21 @@
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
       <c r="K113" s="3"/>
-      <c r="L113" s="63"/>
+      <c r="L113" s="60"/>
     </row>
     <row r="114" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="18"/>
-      <c r="B114" s="13"/>
-      <c r="C114" s="15"/>
-      <c r="D114" s="15"/>
-      <c r="E114" s="15"/>
-      <c r="F114" s="15"/>
-      <c r="G114" s="15"/>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
-      <c r="J114" s="15"/>
-      <c r="K114" s="15"/>
-      <c r="L114" s="64"/>
+      <c r="A114" s="15"/>
+      <c r="B114" s="12"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="3"/>
+      <c r="I114" s="3"/>
+      <c r="J114" s="3"/>
+      <c r="K114" s="3"/>
+      <c r="L114" s="60"/>
     </row>
     <row r="115" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="8"/>
@@ -3560,34 +3533,34 @@
         <v>0</v>
       </c>
       <c r="E115" s="7">
-        <f t="shared" ref="E115:K115" si="0">SUM(E4:E114)</f>
+        <f>SUM(E4:E114)</f>
         <v>0</v>
       </c>
       <c r="F115" s="7">
-        <f t="shared" si="0"/>
+        <f>SUM(F4:F114)</f>
         <v>0</v>
       </c>
       <c r="G115" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G4:G114)</f>
         <v>0</v>
       </c>
       <c r="H115" s="7">
-        <f t="shared" si="0"/>
+        <f>SUM(H4:H114)</f>
         <v>0</v>
       </c>
       <c r="I115" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(I4:I114)</f>
         <v>0</v>
       </c>
       <c r="J115" s="7">
-        <f t="shared" si="0"/>
+        <f>SUM(J4:J114)</f>
         <v>0</v>
       </c>
       <c r="K115" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(K4:K114)</f>
         <v>0</v>
       </c>
-      <c r="L115" s="65" t="e">
+      <c r="L115" s="61" t="e">
         <f>K115/C115*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -3607,19 +3580,19 @@
     <mergeCell ref="E1:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:L114">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H115">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>$I4</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C115 F115:K115" formulaRange="1"/>
+    <ignoredError sqref="F115:K115" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3630,7 +3603,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3641,195 +3614,195 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="73" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="78" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="L2" s="23" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="19" customFormat="1" ht="111" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="35" t="s">
+    <row r="3" spans="1:12" s="16" customFormat="1" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="21" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="79"/>
-      <c r="E4" s="41" t="s">
+      <c r="D4" s="75"/>
+      <c r="E4" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="J4" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="K4" s="28" t="s">
+      <c r="K4" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="L4" s="29" t="s">
+      <c r="L4" s="26" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="27" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="48" t="s">
+    <row r="5" spans="1:12" s="24" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="E5" s="46" t="e">
+      <c r="E5" s="43" t="e">
         <f>VLOOKUP("КОМИТЕТ ПО ЗДРАВООХРАНЕНИЮ",'Свод по всем МО'!$B$4:$L$115,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="F5" s="42" t="e">
+      <c r="F5" s="39" t="e">
         <f>VLOOKUP("КОМИТЕТ ПО ЗДРАВООХРАНЕНИЮ",'Свод по всем МО'!$B$4:$L$115,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G5" s="42" t="e">
+      <c r="G5" s="39" t="e">
         <f>VLOOKUP("КОМИТЕТ ПО ЗДРАВООХРАНЕНИЮ",'Свод по всем МО'!$B$4:$L$115,5,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="H5" s="42" t="e">
+      <c r="H5" s="39" t="e">
         <f>VLOOKUP("КОМИТЕТ ПО ЗДРАВООХРАНЕНИЮ",'Свод по всем МО'!$B$4:$L$115,7,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="I5" s="42" t="e">
+      <c r="I5" s="39" t="e">
         <f>VLOOKUP("КОМИТЕТ ПО ЗДРАВООХРАНЕНИЮ",'Свод по всем МО'!$B$4:$L$115,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J5" s="42" t="e">
+      <c r="J5" s="39" t="e">
         <f>VLOOKUP("КОМИТЕТ ПО ЗДРАВООХРАНЕНИЮ",'Свод по всем МО'!$B$4:$L$115,9,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="K5" s="42" t="e">
+      <c r="K5" s="39" t="e">
         <f>VLOOKUP("КОМИТЕТ ПО ЗДРАВООХРАНЕНИЮ",'Свод по всем МО'!$B$4:$L$115,10,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="L5" s="43" t="e">
+      <c r="L5" s="40" t="e">
         <f>VLOOKUP("КОМИТЕТ ПО ЗДРАВООХРАНЕНИЮ",'Свод по всем МО'!$B$4:$L$115,11,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="27" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="49" t="s">
+    <row r="6" spans="1:12" s="24" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="E6" s="47" t="e">
+      <c r="E6" s="44" t="e">
         <f>VLOOKUP("Итого:",'Свод по всем МО'!$B$4:$L$115,2,0)-E5</f>
         <v>#N/A</v>
       </c>
-      <c r="F6" s="44" t="e">
+      <c r="F6" s="41" t="e">
         <f>VLOOKUP("Итого:",'Свод по всем МО'!$B$4:$L$115,3,0)-F5</f>
         <v>#N/A</v>
       </c>
-      <c r="G6" s="44" t="e">
+      <c r="G6" s="41" t="e">
         <f>VLOOKUP("Итого:",'Свод по всем МО'!$B$4:$L$115,5,0)-G5</f>
         <v>#N/A</v>
       </c>
-      <c r="H6" s="44" t="e">
+      <c r="H6" s="41" t="e">
         <f>VLOOKUP("Итого:",'Свод по всем МО'!$B$4:$L$115,7,0)-H5</f>
         <v>#N/A</v>
       </c>
-      <c r="I6" s="44" t="e">
+      <c r="I6" s="41" t="e">
         <f>VLOOKUP("Итого:",'Свод по всем МО'!$B$4:$L$115,8,0)-I5</f>
         <v>#N/A</v>
       </c>
-      <c r="J6" s="44" t="e">
+      <c r="J6" s="41" t="e">
         <f>VLOOKUP("Итого:",'Свод по всем МО'!$B$4:$L$115,9,0)-J5</f>
         <v>#N/A</v>
       </c>
-      <c r="K6" s="44" t="e">
+      <c r="K6" s="41" t="e">
         <f>VLOOKUP("Итого:",'Свод по всем МО'!$B$4:$L$115,10,0)-K5</f>
         <v>#N/A</v>
       </c>
-      <c r="L6" s="45" t="e">
+      <c r="L6" s="42" t="e">
         <f>K6/E6*100</f>
         <v>#N/A</v>
       </c>
@@ -3864,79 +3837,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="52" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="56" t="e">
+      <c r="B2" s="53" t="e">
         <f>VLOOKUP("КОМИТЕТ ПО ЗДРАВООХРАНЕНИЮ",'Свод по всем МО'!$B$4:$L$115,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C2" s="57" t="e">
+      <c r="C2" s="54" t="e">
         <f>VLOOKUP("КОМИТЕТ ПО ЗДРАВООХРАНЕНИЮ",'Свод по всем МО'!$B$4:$L$115,8,0)+VLOOKUP("КОМИТЕТ ПО ЗДРАВООХРАНЕНИЮ",'Свод по всем МО'!$B$4:$L$115,9,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="D2" s="57" t="e">
+      <c r="D2" s="54" t="e">
         <f>VLOOKUP("КОМИТЕТ ПО ЗДРАВООХРАНЕНИЮ",'Свод по всем МО'!$B$4:$L$115,5,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="E2" s="57" t="e">
+      <c r="E2" s="54" t="e">
         <f>VLOOKUP("КОМИТЕТ ПО ЗДРАВООХРАНЕНИЮ",'Свод по всем МО'!$B$4:$L$115,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="F2" s="57" t="e">
+      <c r="F2" s="54" t="e">
         <f>VLOOKUP("КОМИТЕТ ПО ЗДРАВООХРАНЕНИЮ",'Свод по всем МО'!$B$4:$L$115,6,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G2" s="58"/>
+      <c r="G2" s="55"/>
     </row>
     <row r="3" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="B3" s="59" t="e">
+      <c r="B3" s="56" t="e">
         <f>VLOOKUP("Итого:",'Свод по всем МО'!$B$4:$L$115,3,0)-B2</f>
         <v>#N/A</v>
       </c>
-      <c r="C3" s="60" t="e">
+      <c r="C3" s="57" t="e">
         <f>(VLOOKUP("Итого:",'Свод по всем МО'!$B$4:$L$115,8,0)+ VLOOKUP("Итого:",'Свод по всем МО'!$B$4:$L$115,9,0))-C2</f>
         <v>#N/A</v>
       </c>
-      <c r="D3" s="60" t="e">
+      <c r="D3" s="57" t="e">
         <f>VLOOKUP("Итого:",'Свод по всем МО'!$B$4:$L$115,5,0)-D2</f>
         <v>#N/A</v>
       </c>
-      <c r="E3" s="60" t="e">
+      <c r="E3" s="57" t="e">
         <f>VLOOKUP("Итого:",'Свод по всем МО'!$B$4:$L$115,4,0)-E2</f>
         <v>#N/A</v>
       </c>
-      <c r="F3" s="60" t="e">
+      <c r="F3" s="57" t="e">
         <f>VLOOKUP("Итого:",'Свод по всем МО'!$B$4:$L$115,6,0)-F2</f>
         <v>#N/A</v>
       </c>
-      <c r="G3" s="61"/>
+      <c r="G3" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3966,95 +3939,95 @@
     <col min="12" max="12" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="36" customFormat="1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:12" s="33" customFormat="1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="62" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="62" t="s">
         <v>138</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="66" t="s">
         <v>139</v>
       </c>
-      <c r="G1" s="66" t="s">
+      <c r="G1" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="H1" s="72" t="s">
+      <c r="H1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="73"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="66" t="s">
+      <c r="I1" s="69"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="62" t="s">
         <v>141</v>
       </c>
-      <c r="L1" s="75" t="s">
+      <c r="L1" s="71" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="39" customFormat="1" ht="99.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="67"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="37" t="s">
+    <row r="2" spans="1:12" s="36" customFormat="1" ht="99.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="63"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="I2" s="38" t="s">
+      <c r="I2" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="J2" s="37" t="s">
+      <c r="J2" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="K2" s="67"/>
-      <c r="L2" s="76"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="72"/>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40">
+      <c r="A3" s="37">
         <v>1</v>
       </c>
-      <c r="B3" s="40">
+      <c r="B3" s="37">
         <v>2</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3" s="37">
         <v>3</v>
       </c>
-      <c r="D3" s="40">
+      <c r="D3" s="37">
         <v>4</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="37">
         <v>5</v>
       </c>
-      <c r="F3" s="40">
+      <c r="F3" s="37">
         <v>6</v>
       </c>
-      <c r="G3" s="40">
+      <c r="G3" s="37">
         <v>7</v>
       </c>
-      <c r="H3" s="40">
+      <c r="H3" s="37">
         <v>8</v>
       </c>
-      <c r="I3" s="40">
+      <c r="I3" s="37">
         <v>9</v>
       </c>
-      <c r="J3" s="40">
+      <c r="J3" s="37">
         <v>10</v>
       </c>
-      <c r="K3" s="40">
+      <c r="K3" s="37">
         <v>11</v>
       </c>
-      <c r="L3" s="40">
+      <c r="L3" s="37">
         <v>12</v>
       </c>
     </row>
@@ -4073,12 +4046,12 @@
     <mergeCell ref="E1:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:L1048576">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H150">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>$I4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5102,7 +5075,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Должник"</formula>
     </cfRule>
   </conditionalFormatting>
